--- a/biology/Botanique/Schoenoplectiella/Schoenoplectiella.xlsx
+++ b/biology/Botanique/Schoenoplectiella/Schoenoplectiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schoenoplectiella est un genre de plantes de la famille des Cyperaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (28 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (28 août 2015) :
 Schoenoplectiella aberrans (Cherm.) Lye
 Schoenoplectiella articulata (L.) Lye
 Schoenoplectiella blakei (Hayas.) Hayas.
@@ -597,14 +613,14 @@
 Schoenoplectiella uzenensis (Ohwi ex T.Koyama) Hayas.
 Schoenoplectiella vohemarensis (Cherm.) Lye
 Schoenoplectiella wallichii (Nees) Lye
-Selon GRIN            (28 août 2015)[3] :
+Selon GRIN            (28 août 2015) :
 Schoenoplectiella articulata (L.) Lye
 Schoenoplectiella hallii (A. Gray) Lye
 Schoenoplectiella juncoides (Roxb.) Lye
 Schoenoplectiella lateriflora (J. F. Gmel.) Lye
 Schoenoplectiella mucronata (L.) J. Jung &amp; H. K. Choi
 Schoenoplectiella supina (L.) Lye
-Selon World Checklist of Selected Plant Families (WCSP)  (28 août 2015)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (28 août 2015) :
 Schoenoplectiella aberrans (Cherm.) Lye (2003)
 Schoenoplectiella articulata (L.) Lye (2003)
 Schoenoplectiella blakei (Hayas.) Hayas. (2012)
@@ -669,7 +685,7 @@
 Schoenoplectiella × uzenensis (Ohwi ex T.Koyama) Hayas. (2012)
 Schoenoplectiella vohemarensis (Cherm.) Lye (2003)
 Schoenoplectiella wallichii (Nees) Lye (2003)
-Selon NCBI  (28 août 2015)[5] :
+Selon NCBI  (28 août 2015) :
 Schoenoplectiella articulata
 Schoenoplectiella dissachantha
 Schoenoplectiella erecta
@@ -692,7 +708,7 @@
 Schoenoplectiella supina
 Schoenoplectiella triangulata
 Schoenoplectiella wallichii
-Selon The Plant List            (28 août 2015)[6] :
+Selon The Plant List            (28 août 2015) :
 Schoenoplectiella aberrans (Cherm.) Lye
 Schoenoplectiella articulata (L.) Lye
 Schoenoplectiella dissachantha (S.T.Blake) Lye
@@ -723,7 +739,7 @@
 Schoenoplectiella supina (L.) Lye
 Schoenoplectiella vohemarensis (Cherm.) Lye
 Schoenoplectiella wallichii (Nees) Lye
-Selon Tropicos                                           (28 août 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 Schoenoplectiella aberrans (Cherm.) Lye
 Schoenoplectiella articulata (L.) Lye
 Schoenoplectiella blakei (Hayasaka) Hayasaka
